--- a/natmiOut/OldD0/LR-pairs_lrc2p/Adam9-Itga6.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Adam9-Itga6.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.3202049042199</v>
+        <v>11.915632</v>
       </c>
       <c r="H2">
-        <v>11.3202049042199</v>
+        <v>35.746896</v>
       </c>
       <c r="I2">
-        <v>0.2134251721666008</v>
+        <v>0.2203762099850903</v>
       </c>
       <c r="J2">
-        <v>0.2134251721666008</v>
+        <v>0.2203762099850904</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>76.12057397015499</v>
+        <v>103.4766596666667</v>
       </c>
       <c r="N2">
-        <v>76.12057397015499</v>
+        <v>310.429979</v>
       </c>
       <c r="O2">
-        <v>0.8485934325368432</v>
+        <v>0.877785331764719</v>
       </c>
       <c r="P2">
-        <v>0.8485934325368432</v>
+        <v>0.8777853317647188</v>
       </c>
       <c r="Q2">
-        <v>861.7004947689821</v>
+        <v>1232.989797177243</v>
       </c>
       <c r="R2">
-        <v>861.7004947689821</v>
+        <v>11096.90817459518</v>
       </c>
       <c r="S2">
-        <v>0.1811111994386225</v>
+        <v>0.1934430045948139</v>
       </c>
       <c r="T2">
-        <v>0.1811111994386225</v>
+        <v>0.1934430045948139</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.3202049042199</v>
+        <v>11.915632</v>
       </c>
       <c r="H3">
-        <v>11.3202049042199</v>
+        <v>35.746896</v>
       </c>
       <c r="I3">
-        <v>0.2134251721666008</v>
+        <v>0.2203762099850903</v>
       </c>
       <c r="J3">
-        <v>0.2134251721666008</v>
+        <v>0.2203762099850904</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.772178905633037</v>
+        <v>0.8265796666666668</v>
       </c>
       <c r="N3">
-        <v>0.772178905633037</v>
+        <v>2.479739</v>
       </c>
       <c r="O3">
-        <v>0.008608263362814311</v>
+        <v>0.007011818020336602</v>
       </c>
       <c r="P3">
-        <v>0.008608263362814311</v>
+        <v>0.0070118180203366</v>
       </c>
       <c r="Q3">
-        <v>8.741223434482261</v>
+        <v>9.849219126682669</v>
       </c>
       <c r="R3">
-        <v>8.741223434482261</v>
+        <v>88.64297214014401</v>
       </c>
       <c r="S3">
-        <v>0.001837220090264087</v>
+        <v>0.001545237880426939</v>
       </c>
       <c r="T3">
-        <v>0.001837220090264087</v>
+        <v>0.001545237880426939</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.3202049042199</v>
+        <v>11.915632</v>
       </c>
       <c r="H4">
-        <v>11.3202049042199</v>
+        <v>35.746896</v>
       </c>
       <c r="I4">
-        <v>0.2134251721666008</v>
+        <v>0.2203762099850903</v>
       </c>
       <c r="J4">
-        <v>0.2134251721666008</v>
+        <v>0.2203762099850904</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.80930119573</v>
+        <v>13.58054833333333</v>
       </c>
       <c r="N4">
-        <v>12.80930119573</v>
+        <v>40.741645</v>
       </c>
       <c r="O4">
-        <v>0.1427983041003425</v>
+        <v>0.1152028502149446</v>
       </c>
       <c r="P4">
-        <v>0.1427983041003425</v>
+        <v>0.1152028502149446</v>
       </c>
       <c r="Q4">
-        <v>145.0039142155326</v>
+        <v>161.8208162982133</v>
       </c>
       <c r="R4">
-        <v>145.0039142155326</v>
+        <v>1456.38734668392</v>
       </c>
       <c r="S4">
-        <v>0.03047675263771423</v>
+        <v>0.02538796750984954</v>
       </c>
       <c r="T4">
-        <v>0.03047675263771423</v>
+        <v>0.02538796750984954</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.7366138167649</v>
+        <v>29.800487</v>
       </c>
       <c r="H5">
-        <v>29.7366138167649</v>
+        <v>89.40146100000001</v>
       </c>
       <c r="I5">
-        <v>0.5606384316532056</v>
+        <v>0.5511514941691683</v>
       </c>
       <c r="J5">
-        <v>0.5606384316532056</v>
+        <v>0.5511514941691684</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>76.12057397015499</v>
+        <v>103.4766596666667</v>
       </c>
       <c r="N5">
-        <v>76.12057397015499</v>
+        <v>310.429979</v>
       </c>
       <c r="O5">
-        <v>0.8485934325368432</v>
+        <v>0.877785331764719</v>
       </c>
       <c r="P5">
-        <v>0.8485934325368432</v>
+        <v>0.8777853317647188</v>
       </c>
       <c r="Q5">
-        <v>2263.568111660986</v>
+        <v>3083.654851199924</v>
       </c>
       <c r="R5">
-        <v>2263.568111660986</v>
+        <v>27752.89366079932</v>
       </c>
       <c r="S5">
-        <v>0.4757540911286661</v>
+        <v>0.483792697161904</v>
       </c>
       <c r="T5">
-        <v>0.4757540911286661</v>
+        <v>0.483792697161904</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29.7366138167649</v>
+        <v>29.800487</v>
       </c>
       <c r="H6">
-        <v>29.7366138167649</v>
+        <v>89.40146100000001</v>
       </c>
       <c r="I6">
-        <v>0.5606384316532056</v>
+        <v>0.5511514941691683</v>
       </c>
       <c r="J6">
-        <v>0.5606384316532056</v>
+        <v>0.5511514941691684</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.772178905633037</v>
+        <v>0.8265796666666668</v>
       </c>
       <c r="N6">
-        <v>0.772178905633037</v>
+        <v>2.479739</v>
       </c>
       <c r="O6">
-        <v>0.008608263362814311</v>
+        <v>0.007011818020336602</v>
       </c>
       <c r="P6">
-        <v>0.008608263362814311</v>
+        <v>0.0070118180203366</v>
       </c>
       <c r="Q6">
-        <v>22.96198591426177</v>
+        <v>24.63247661096434</v>
       </c>
       <c r="R6">
-        <v>22.96198591426177</v>
+        <v>221.6922894986791</v>
       </c>
       <c r="S6">
-        <v>0.004826123270985965</v>
+        <v>0.003864573978750818</v>
       </c>
       <c r="T6">
-        <v>0.004826123270985965</v>
+        <v>0.003864573978750818</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>29.7366138167649</v>
+        <v>29.800487</v>
       </c>
       <c r="H7">
-        <v>29.7366138167649</v>
+        <v>89.40146100000001</v>
       </c>
       <c r="I7">
-        <v>0.5606384316532056</v>
+        <v>0.5511514941691683</v>
       </c>
       <c r="J7">
-        <v>0.5606384316532056</v>
+        <v>0.5511514941691684</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.80930119573</v>
+        <v>13.58054833333333</v>
       </c>
       <c r="N7">
-        <v>12.80930119573</v>
+        <v>40.741645</v>
       </c>
       <c r="O7">
-        <v>0.1427983041003425</v>
+        <v>0.1152028502149446</v>
       </c>
       <c r="P7">
-        <v>0.1427983041003425</v>
+        <v>0.1152028502149446</v>
       </c>
       <c r="Q7">
-        <v>380.9052429200479</v>
+        <v>404.7069540603717</v>
       </c>
       <c r="R7">
-        <v>380.9052429200479</v>
+        <v>3642.362586543346</v>
       </c>
       <c r="S7">
-        <v>0.08005821725355355</v>
+        <v>0.06349422302851361</v>
       </c>
       <c r="T7">
-        <v>0.08005821725355355</v>
+        <v>0.06349422302851361</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.9838080677957</v>
+        <v>12.35338333333333</v>
       </c>
       <c r="H8">
-        <v>11.9838080677957</v>
+        <v>37.06015</v>
       </c>
       <c r="I8">
-        <v>0.2259363961801936</v>
+        <v>0.2284722958457413</v>
       </c>
       <c r="J8">
-        <v>0.2259363961801936</v>
+        <v>0.2284722958457413</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>76.12057397015499</v>
+        <v>103.4766596666667</v>
       </c>
       <c r="N8">
-        <v>76.12057397015499</v>
+        <v>310.429979</v>
       </c>
       <c r="O8">
-        <v>0.8485934325368432</v>
+        <v>0.877785331764719</v>
       </c>
       <c r="P8">
-        <v>0.8485934325368432</v>
+        <v>0.8777853317647188</v>
       </c>
       <c r="Q8">
-        <v>912.2143484687828</v>
+        <v>1278.286842915206</v>
       </c>
       <c r="R8">
-        <v>912.2143484687828</v>
+        <v>11504.58158623685</v>
       </c>
       <c r="S8">
-        <v>0.1917281419695546</v>
+        <v>0.200549630008001</v>
       </c>
       <c r="T8">
-        <v>0.1917281419695546</v>
+        <v>0.200549630008001</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.9838080677957</v>
+        <v>12.35338333333333</v>
       </c>
       <c r="H9">
-        <v>11.9838080677957</v>
+        <v>37.06015</v>
       </c>
       <c r="I9">
-        <v>0.2259363961801936</v>
+        <v>0.2284722958457413</v>
       </c>
       <c r="J9">
-        <v>0.2259363961801936</v>
+        <v>0.2284722958457413</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.772178905633037</v>
+        <v>0.8265796666666668</v>
       </c>
       <c r="N9">
-        <v>0.772178905633037</v>
+        <v>2.479739</v>
       </c>
       <c r="O9">
-        <v>0.008608263362814311</v>
+        <v>0.007011818020336602</v>
       </c>
       <c r="P9">
-        <v>0.008608263362814311</v>
+        <v>0.0070118180203366</v>
       </c>
       <c r="Q9">
-        <v>9.253643799106843</v>
+        <v>10.21105547787222</v>
       </c>
       <c r="R9">
-        <v>9.253643799106843</v>
+        <v>91.89949930085001</v>
       </c>
       <c r="S9">
-        <v>0.00194492000156426</v>
+        <v>0.001602006161158844</v>
       </c>
       <c r="T9">
-        <v>0.00194492000156426</v>
+        <v>0.001602006161158844</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.9838080677957</v>
+        <v>12.35338333333333</v>
       </c>
       <c r="H10">
-        <v>11.9838080677957</v>
+        <v>37.06015</v>
       </c>
       <c r="I10">
-        <v>0.2259363961801936</v>
+        <v>0.2284722958457413</v>
       </c>
       <c r="J10">
-        <v>0.2259363961801936</v>
+        <v>0.2284722958457413</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.80930119573</v>
+        <v>13.58054833333333</v>
       </c>
       <c r="N10">
-        <v>12.80930119573</v>
+        <v>40.741645</v>
       </c>
       <c r="O10">
-        <v>0.1427983041003425</v>
+        <v>0.1152028502149446</v>
       </c>
       <c r="P10">
-        <v>0.1427983041003425</v>
+        <v>0.1152028502149446</v>
       </c>
       <c r="Q10">
-        <v>153.5042070122143</v>
+        <v>167.7657194385278</v>
       </c>
       <c r="R10">
-        <v>153.5042070122143</v>
+        <v>1509.89147494675</v>
       </c>
       <c r="S10">
-        <v>0.03226333420907475</v>
+        <v>0.02632065967658144</v>
       </c>
       <c r="T10">
-        <v>0.03226333420907475</v>
+        <v>0.02632065967658144</v>
       </c>
     </row>
   </sheetData>
